--- a/Contas.xlsx
+++ b/Contas.xlsx
@@ -1,47 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Conta</t>
+  </si>
+  <si>
+    <t>Data do Vencimento</t>
+  </si>
+  <si>
+    <t>Data do Pagamento</t>
+  </si>
+  <si>
+    <t>Status do Pagamento</t>
+  </si>
+  <si>
+    <t>Valor Pago</t>
+  </si>
+  <si>
+    <t>OBS</t>
+  </si>
+  <si>
+    <t>Moradia</t>
+  </si>
+  <si>
+    <t>Luz</t>
+  </si>
+  <si>
+    <t>Pago</t>
+  </si>
+  <si>
+    <t>Aluguel</t>
+  </si>
+  <si>
+    <t>Pendente</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Biscoito</t>
+  </si>
+  <si>
+    <t>IPTV</t>
+  </si>
+  <si>
+    <t>Sem data de pagamento</t>
+  </si>
+  <si>
+    <t>Celular Harley</t>
+  </si>
+  <si>
+    <t>2024-10-25T00:00:00.000</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>Leite, hambúrguer, queijo, farinha, pao</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -64,108 +132,57 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="13">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,208 +470,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="9.43357142857143" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="19.57642857142857" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="18.14785714285714" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="19.57642857142857" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="10.14785714285714" bestFit="1" customWidth="1" style="6" min="7" max="7"/>
+    <col min="1" max="1" style="10" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="6" t="inlineStr">
-        <is>
-          <t>Categoria</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Conta</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Data do Vencimento</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>Data do Pagamento</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Status do Pagamento</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr">
-        <is>
-          <t>Valor Pago</t>
-        </is>
-      </c>
-      <c r="G1" s="5" t="inlineStr">
-        <is>
-          <t>OBS</t>
-        </is>
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Moradia</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Luz</t>
-        </is>
-      </c>
-      <c r="C2" s="9" t="n">
-        <v>45571</v>
-      </c>
-      <c r="D2" s="9" t="n">
-        <v>45574</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25568.87552744213</v>
+      </c>
+      <c r="D2" s="5">
+        <v>25568.875527476852</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="6">
         <v>160</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Moradia</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Aluguel</t>
-        </is>
-      </c>
-      <c r="C3" s="9" t="n">
-        <v>45585</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>45585</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5">
+        <v>25568.875527604167</v>
+      </c>
+      <c r="D3" s="5">
+        <v>25568.875527604167</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="6">
         <v>0</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Outros</t>
-        </is>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>45577</v>
-      </c>
-      <c r="D4" s="9" t="n">
-        <v>45577</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5">
+        <v>25568.875527511573</v>
+      </c>
+      <c r="D4" s="5">
+        <v>25568.875527511573</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="7">
         <v>4.96</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Biscoito</t>
-        </is>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Moradia</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>IPTV</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>45580</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>45578</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pendente</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5">
+        <v>25568.875527546297</v>
+      </c>
+      <c r="D5" s="5">
+        <v>25568.87552752315</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="6">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Sem data de pagamento</t>
-        </is>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Alimentação</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Mercado</t>
-        </is>
-      </c>
-      <c r="C6" s="9" t="n">
-        <v>45578</v>
-      </c>
-      <c r="D6" s="9" t="n">
-        <v>45578</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Pago</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5">
+        <v>25568.87552752315</v>
+      </c>
+      <c r="D7" s="5">
+        <v>25568.87552752315</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="7">
         <v>37.38</v>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Leite, hambúrguer, queijo, farinha, pao</t>
-        </is>
+      <c r="G7" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Contas.xlsx
+++ b/Contas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Categoria</t>
   </si>
@@ -35,48 +35,6 @@
   </si>
   <si>
     <t>OBS</t>
-  </si>
-  <si>
-    <t>Moradia</t>
-  </si>
-  <si>
-    <t>Luz</t>
-  </si>
-  <si>
-    <t>Pago</t>
-  </si>
-  <si>
-    <t>Aluguel</t>
-  </si>
-  <si>
-    <t>Pendente</t>
-  </si>
-  <si>
-    <t>Outros</t>
-  </si>
-  <si>
-    <t>Biscoito</t>
-  </si>
-  <si>
-    <t>IPTV</t>
-  </si>
-  <si>
-    <t>Sem data de pagamento</t>
-  </si>
-  <si>
-    <t>Celular Harley</t>
-  </si>
-  <si>
-    <t>2024-10-25T00:00:00.000</t>
-  </si>
-  <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
-    <t>Leite, hambúrguer, queijo, farinha, pao</t>
   </si>
 </sst>
 </file>
@@ -86,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,12 +55,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -134,7 +86,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -145,31 +97,16 @@
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -474,19 +411,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -512,138 +449,6 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5">
-        <v>25568.87552744213</v>
-      </c>
-      <c r="D2" s="5">
-        <v>25568.875527476852</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="6">
-        <v>160</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>25568.875527604167</v>
-      </c>
-      <c r="D3" s="5">
-        <v>25568.875527604167</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5">
-        <v>25568.875527511573</v>
-      </c>
-      <c r="D4" s="5">
-        <v>25568.875527511573</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7">
-        <v>4.96</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5">
-        <v>25568.875527546297</v>
-      </c>
-      <c r="D5" s="5">
-        <v>25568.87552752315</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5">
-        <v>25568.87552752315</v>
-      </c>
-      <c r="D7" s="5">
-        <v>25568.87552752315</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="7">
-        <v>37.38</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Contas.xlsx
+++ b/Contas.xlsx
@@ -1,67 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Conta</t>
-  </si>
-  <si>
-    <t>Data do Vencimento</t>
-  </si>
-  <si>
-    <t>Data do Pagamento</t>
-  </si>
-  <si>
-    <t>Status do Pagamento</t>
-  </si>
-  <si>
-    <t>Valor Pago</t>
-  </si>
-  <si>
-    <t>OBS</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -84,42 +58,105 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -407,46 +444,180 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="5" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="18.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="19.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="10.147857142857141" customWidth="1" bestFit="1"/>
+    <col width="9.43357142857143" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="19.57642857142857" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="18.14785714285714" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
+    <col width="19.57642857142857" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="10.14785714285714" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>Categoria</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Conta</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Forma de Pagamento</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Data do Pagamento</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Status do Pagamento</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>Valor Pago</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>OBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Celular Harley</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Debito Harley</t>
+        </is>
+      </c>
+      <c r="D2" s="8" t="n">
+        <v>45566</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Telefonia</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Celular Daiana</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Debito Daiana</t>
+        </is>
+      </c>
+      <c r="D3" s="8" t="n">
+        <v>45597</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>73.64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Saúde</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remédios </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Debito Daiana</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n">
+        <v>45598</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Alimentação</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mercadinho condomínio </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Debito Daiana</t>
+        </is>
+      </c>
+      <c r="D5" s="8" t="n">
+        <v>45598</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pago</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Batata palha</t>
+        </is>
       </c>
     </row>
   </sheetData>
